--- a/sputnik/personal/ee/275ee.xlsx
+++ b/sputnik/personal/ee/275ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,13 +39,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>доплатить 42,35; начислены пени за просрочку оплаты на 149 дней с 22.12.18 до 21.05.2019;        2716,35 х (49-40) х 0,1%=296,08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">оплачены пени </t>
-  </si>
-  <si>
-    <t>оплачен долг</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -59,9 +62,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,19 +95,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -137,48 +127,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -191,14 +144,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,15 +156,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -522,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F23:F24"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -536,208 +478,253 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43246</v>
+        <v>43456</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>3317</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>4130</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>2263</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>2770</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43288</v>
+        <v>43606</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>3516</v>
+        <v>4579</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>199</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.5</v>
+        <f>C4-C2</f>
+        <v>449</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F11" si="1">D4*E4</f>
-        <v>895.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
+        <v>2051.9300000000003</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SUM(F4,F5)</f>
+        <v>2716.3500000000004</v>
+      </c>
+      <c r="H4" s="10">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2369</v>
+        <v>3048</v>
       </c>
       <c r="D5" s="3">
+        <f>C5-C3</f>
+        <v>278</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>249.10000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>664.42000000000007</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43337</v>
+        <v>43654</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>3642</v>
+        <v>4709</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.5</v>
+        <f>C6-C4</f>
+        <v>130</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>567</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F6:F11" si="1">D6*E6</f>
+        <v>583.70000000000005</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>790.25</v>
+      </c>
+      <c r="H6" s="10">
+        <v>790.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>2428</v>
+        <v>3133</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.35</v>
+        <f>C7-C5</f>
+        <v>85</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
-        <v>138.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206.55</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
+        <v>42.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43456</v>
+        <v>43724</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>4130</v>
+        <v>4855</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>488</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.5</v>
+        <f t="shared" ref="D8:D15" si="2">C8-C6</f>
+        <v>146</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="1"/>
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>655.54000000000008</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>864.5200000000001</v>
+      </c>
+      <c r="H8" s="10">
+        <v>864.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>2770</v>
+        <v>3219</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>342</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.35</v>
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
-        <v>803.7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>208.98000000000002</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43606</v>
+        <v>43759</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>4579</v>
+        <v>4974</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C8</f>
-        <v>449</v>
-      </c>
-      <c r="E10" s="9">
-        <v>4.57</v>
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.49</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="1"/>
-        <v>2051.9300000000003</v>
+        <v>534.31000000000006</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>697.12000000000012</v>
+      </c>
+      <c r="H10" s="10">
+        <v>534.30999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -746,298 +733,172 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>3048</v>
+        <v>3286</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-C9</f>
-        <v>278</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2.39</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="1"/>
-        <v>664.42000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162.81</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <v>162.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43606</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
+        <v>43796</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5103</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="6">
+        <f>D12*E12</f>
+        <v>579.21</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>727.44</v>
+      </c>
+      <c r="H12" s="10">
+        <v>727.44</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43654</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="10"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3347</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2.4300000000000002</v>
+      </c>
       <c r="F13" s="6">
-        <v>42.35</v>
-      </c>
+        <f>D13*E13</f>
+        <v>148.23000000000002</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43654</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>43845</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5308</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.49</v>
+      </c>
       <c r="F14" s="6">
-        <v>296.08</v>
+        <f>D14*E14</f>
+        <v>920.45</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>1282.52</v>
+      </c>
+      <c r="H14" s="10">
+        <v>921</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43654</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>4709</v>
+        <v>3496</v>
       </c>
       <c r="D15" s="3">
-        <f>C15-C10</f>
-        <v>130</v>
+        <f t="shared" si="2"/>
+        <v>149</v>
       </c>
       <c r="E15" s="9">
-        <v>4.49</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15:F20" si="2">D15*E15</f>
-        <v>583.70000000000005</v>
+        <f>D15*E15</f>
+        <v>362.07000000000005</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3133</v>
-      </c>
-      <c r="D16" s="3">
-        <f>C16-C11</f>
-        <v>85</v>
-      </c>
-      <c r="E16" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="2"/>
-        <v>206.55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43724</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4855</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" ref="D17:D24" si="3">C17-C15</f>
-        <v>146</v>
-      </c>
-      <c r="E17" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="2"/>
-        <v>655.54000000000008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3219</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="E18" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="2"/>
-        <v>208.98000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>43759</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4974</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="3"/>
-        <v>119</v>
-      </c>
-      <c r="E19" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="2"/>
-        <v>534.31000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3286</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="E20" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="2"/>
-        <v>162.81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43796</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5103</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="3"/>
-        <v>129</v>
-      </c>
-      <c r="E21" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F21" s="6">
-        <f>D21*E21</f>
-        <v>579.21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3347</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="E22" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F22" s="6">
-        <f>D22*E22</f>
-        <v>148.23000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>43845</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5308</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="3"/>
-        <v>205</v>
-      </c>
-      <c r="E23" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F23" s="6">
-        <f>D23*E23</f>
-        <v>920.45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3496</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="3"/>
-        <v>149</v>
-      </c>
-      <c r="E24" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F24" s="6">
-        <f>D24*E24</f>
-        <v>362.07000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(G4:G15)</f>
+        <v>7078.2000000000007</v>
+      </c>
+      <c r="H16" s="10">
+        <f>SUM(H4:H15)</f>
+        <v>7078.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <f>SUM(H16,-G16)</f>
+        <v>0.47999999999956344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B12:F12"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/275ee.xlsx
+++ b/sputnik/personal/ee/275ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -464,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -856,37 +856,55 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
+      <c r="A16" s="4">
+        <v>43958</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5906</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="3">C16-C14</f>
+        <v>598</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="6">
+        <f>D16*E16</f>
+        <v>2685.02</v>
       </c>
       <c r="G16" s="10">
-        <f>SUM(G4:G15)</f>
-        <v>7078.2000000000007</v>
+        <f>SUM(F16,F17)</f>
+        <v>4009.37</v>
       </c>
       <c r="H16" s="10">
-        <f>SUM(H4:H15)</f>
-        <v>7078.68</v>
+        <v>4009.37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4041</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="3"/>
+        <v>545</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="6">
+        <f>D17*E17</f>
+        <v>1324.3500000000001</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="10">
-        <f>SUM(H16,-G16)</f>
-        <v>0.47999999999956344</v>
-      </c>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -894,9 +912,42 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(G4:G17)</f>
+        <v>11087.57</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(H4:H16)</f>
+        <v>11088.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f>SUM(H18,-G18)</f>
+        <v>0.47999999999956344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/275ee.xlsx
+++ b/sputnik/personal/ee/275ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -464,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -769,7 +769,7 @@
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f>D12*E12</f>
+        <f t="shared" ref="F12:F17" si="3">D12*E12</f>
         <v>579.21</v>
       </c>
       <c r="G12" s="10">
@@ -796,7 +796,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f>D13*E13</f>
+        <f t="shared" si="3"/>
         <v>148.23000000000002</v>
       </c>
       <c r="G13" s="10"/>
@@ -820,7 +820,7 @@
         <v>4.49</v>
       </c>
       <c r="F14" s="6">
-        <f>D14*E14</f>
+        <f t="shared" si="3"/>
         <v>920.45</v>
       </c>
       <c r="G14" s="10">
@@ -847,7 +847,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="6">
-        <f>D15*E15</f>
+        <f t="shared" si="3"/>
         <v>362.07000000000005</v>
       </c>
       <c r="G15" s="10"/>
@@ -866,14 +866,14 @@
         <v>5906</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="3">C16-C14</f>
+        <f t="shared" ref="D16:D17" si="4">C16-C14</f>
         <v>598</v>
       </c>
       <c r="E16" s="8">
         <v>4.49</v>
       </c>
       <c r="F16" s="6">
-        <f>D16*E16</f>
+        <f t="shared" si="3"/>
         <v>2685.02</v>
       </c>
       <c r="G16" s="10">
@@ -893,50 +893,70 @@
         <v>4041</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>545</v>
       </c>
       <c r="E17" s="9">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="6">
-        <f>D17*E17</f>
+        <f t="shared" si="3"/>
         <v>1324.3500000000001</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
+      <c r="A18" s="4">
+        <v>43997</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6229</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="5">C18-C16</f>
+        <v>323</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="6">D18*E18</f>
+        <v>1450.27</v>
       </c>
       <c r="G18" s="10">
-        <f>SUM(G4:G17)</f>
-        <v>11087.57</v>
+        <f>SUM(F18,F19)</f>
+        <v>2133.1</v>
       </c>
       <c r="H18" s="10">
-        <f>SUM(H4:H16)</f>
-        <v>11088.05</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4322</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="5"/>
+        <v>281</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="6"/>
+        <v>682.83</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
-        <f>SUM(H18,-G18)</f>
-        <v>0.47999999999956344</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -945,9 +965,42 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(G4:G19)</f>
+        <v>13220.67</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(H4:H19)</f>
+        <v>13222.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
+        <v>1.3799999999991996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/275ee.xlsx
+++ b/sputnik/personal/ee/275ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -464,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -960,36 +960,56 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
+      <c r="A20" s="4">
+        <v>44055</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6463</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="7">C20-C18</f>
+        <v>234</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
+        <v>1102.1400000000001</v>
       </c>
       <c r="G20" s="10">
-        <f>SUM(G4:G19)</f>
-        <v>13220.67</v>
+        <f>SUM(F20,F21)</f>
+        <v>1362.24</v>
       </c>
       <c r="H20" s="10">
-        <f>SUM(H4:H19)</f>
-        <v>13222.05</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4424</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="8"/>
+        <v>260.09999999999997</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
-        <v>1.3799999999991996</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -998,9 +1018,42 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(G4:G21)</f>
+        <v>14582.91</v>
+      </c>
+      <c r="H22" s="10">
+        <f>SUM(H4:H21)</f>
+        <v>14585.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f>SUM(H22,-G22)</f>
+        <v>2.1399999999994179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/275ee.xlsx
+++ b/sputnik/personal/ee/275ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -464,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1013,37 +1013,55 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
+      <c r="A22" s="4">
+        <v>44117</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6669</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="9">C22-C20</f>
+        <v>206</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="10">D22*E22</f>
+        <v>970.26</v>
       </c>
       <c r="G22" s="10">
-        <f>SUM(G4:G21)</f>
-        <v>14582.91</v>
+        <f>SUM(F22,F23)</f>
+        <v>1383.36</v>
       </c>
       <c r="H22" s="10">
-        <f>SUM(H4:H21)</f>
-        <v>14585.05</v>
+        <v>1383.36</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4586</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="9"/>
+        <v>162</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="10"/>
+        <v>413.09999999999997</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <f>SUM(H22,-G22)</f>
-        <v>2.1399999999994179</v>
-      </c>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -1051,9 +1069,42 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SUM(G4:G23)</f>
+        <v>15966.27</v>
+      </c>
+      <c r="H24" s="10">
+        <f>SUM(H4:H23)</f>
+        <v>15968.41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
+        <f>SUM(H24,-G24)</f>
+        <v>2.1399999999994179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/275ee.xlsx
+++ b/sputnik/personal/ee/275ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -464,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1064,37 +1064,55 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>11</v>
+      <c r="A24" s="4">
+        <v>44165</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6887</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="11">C24-C22</f>
+        <v>218</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:F25" si="12">D24*E24</f>
+        <v>1026.78</v>
       </c>
       <c r="G24" s="10">
-        <f>SUM(G4:G23)</f>
-        <v>15966.27</v>
+        <f>SUM(F24,F25)</f>
+        <v>1419.48</v>
       </c>
       <c r="H24" s="10">
-        <f>SUM(H4:H23)</f>
-        <v>15968.41</v>
+        <v>1383.36</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>12</v>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4740</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="11"/>
+        <v>154</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="12"/>
+        <v>392.7</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="10">
-        <f>SUM(H24,-G24)</f>
-        <v>2.1399999999994179</v>
-      </c>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
@@ -1102,9 +1120,42 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="10">
+        <f>SUM(G4:G23)</f>
+        <v>15966.27</v>
+      </c>
+      <c r="H26" s="10">
+        <f>SUM(H4:H23)</f>
+        <v>15968.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
+        <f>SUM(H26,-G26)</f>
+        <v>2.1399999999994179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/275ee.xlsx
+++ b/sputnik/personal/ee/275ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\23.01.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 25.01.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -92,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -162,6 +168,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -442,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H10" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,31 +493,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44165</v>
+        <v>44225</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>6887</v>
+        <v>7254</v>
       </c>
       <c r="D2" s="10">
-        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
-        <v>218</v>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>367</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F9" si="1">D2*E2</f>
-        <v>1026.78</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>1728.57</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>1419.48</v>
+        <v>2299.77</v>
       </c>
       <c r="H2" s="8">
-        <v>1419.48</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -519,49 +526,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>4740</v>
+        <v>4964</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>392.7</v>
+        <v>571.19999999999993</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44117</v>
+      <c r="A4" s="16">
+        <v>44165</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>6669</v>
+        <v>6887</v>
       </c>
       <c r="D4" s="10">
-        <f>SUM(C4,-C6)</f>
-        <v>206</v>
+        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
+        <v>218</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="1"/>
-        <v>970.26</v>
+        <f t="shared" ref="F4:F11" si="3">D4*E4</f>
+        <v>1026.78</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1383.36</v>
+        <v>1419.48</v>
       </c>
       <c r="H4" s="8">
-        <v>1386.36</v>
+        <v>1419.48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -570,100 +577,100 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>4586</v>
+        <v>4740</v>
       </c>
       <c r="D5" s="10">
-        <f t="shared" si="0"/>
-        <v>162</v>
+        <f t="shared" si="2"/>
+        <v>154</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>413.09999999999997</v>
+        <f t="shared" si="3"/>
+        <v>392.7</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44055</v>
+        <v>44117</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>6463</v>
+        <v>6669</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" si="0"/>
-        <v>234</v>
+        <f>SUM(C6,-C8)</f>
+        <v>206</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="1"/>
-        <v>1102.1400000000001</v>
+        <f t="shared" si="3"/>
+        <v>970.26</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>1362.24</v>
+        <v>1383.36</v>
       </c>
       <c r="H6" s="8">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1386.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>4424</v>
+        <v>4586</v>
       </c>
       <c r="D7" s="10">
-        <f t="shared" si="0"/>
-        <v>102</v>
+        <f t="shared" si="2"/>
+        <v>162</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="1"/>
-        <v>260.09999999999997</v>
+        <f t="shared" si="3"/>
+        <v>413.09999999999997</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43997</v>
+        <v>44055</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>6229</v>
+        <v>6463</v>
       </c>
       <c r="D8" s="10">
-        <f t="shared" si="0"/>
-        <v>323</v>
+        <f t="shared" si="2"/>
+        <v>234</v>
       </c>
       <c r="E8" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="1"/>
-        <v>1450.27</v>
+        <f t="shared" si="3"/>
+        <v>1102.1400000000001</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>2133.1</v>
+        <v>1362.24</v>
       </c>
       <c r="H8" s="8">
-        <v>2134</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -672,37 +679,50 @@
         <v>9</v>
       </c>
       <c r="C9" s="10">
-        <v>4322</v>
+        <v>4424</v>
       </c>
       <c r="D9" s="10">
-        <f t="shared" si="0"/>
-        <v>281</v>
+        <f t="shared" si="2"/>
+        <v>102</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="1"/>
-        <v>682.83</v>
-      </c>
-      <c r="G9" s="3"/>
+        <f t="shared" si="3"/>
+        <v>260.09999999999997</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43958</v>
+        <v>43997</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10">
-        <v>5906</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+        <v>6229</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="2"/>
+        <v>323</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="3"/>
+        <v>1450.27</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>2133.1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2134</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -710,36 +730,74 @@
         <v>9</v>
       </c>
       <c r="C11" s="10">
+        <v>4322</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="2"/>
+        <v>281</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="3"/>
+        <v>682.83</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43958</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5906</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10">
         <v>4041</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="15"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="7"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/275ee.xlsx
+++ b/sputnik/personal/ee/275ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\23.01.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 25.01.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 01.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H2:H10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,31 +493,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44225</v>
+        <v>44383</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>7254</v>
+        <v>7885</v>
       </c>
       <c r="D2" s="10">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>367</v>
+        <v>89</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1728.57</v>
+        <v>419.19</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>2299.77</v>
+        <v>590.04</v>
       </c>
       <c r="H2" s="8">
-        <v>2301</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -526,49 +526,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>4964</v>
+        <v>5160</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>571.19999999999993</v>
+        <v>170.85</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <v>44165</v>
+        <v>44375</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>6887</v>
+        <v>7796</v>
       </c>
       <c r="D4" s="10">
-        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
-        <v>218</v>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>542</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F11" si="3">D4*E4</f>
-        <v>1026.78</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>2552.8200000000002</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1419.48</v>
+        <v>2881.77</v>
       </c>
       <c r="H4" s="8">
-        <v>1419.48</v>
+        <v>2881.82</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -577,49 +577,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>4740</v>
+        <v>5093</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>392.7</v>
+        <v>328.95</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44117</v>
+      <c r="A6" s="16">
+        <v>44225</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>6669</v>
+        <v>7254</v>
       </c>
       <c r="D6" s="10">
-        <f>SUM(C6,-C8)</f>
-        <v>206</v>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
+        <v>367</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="3"/>
-        <v>970.26</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>1728.57</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>1383.36</v>
+        <v>2299.77</v>
       </c>
       <c r="H6" s="8">
-        <v>1386.36</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -628,49 +628,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>4586</v>
+        <v>4964</v>
       </c>
       <c r="D7" s="10">
-        <f t="shared" si="2"/>
-        <v>162</v>
+        <f t="shared" si="4"/>
+        <v>224</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="3"/>
-        <v>413.09999999999997</v>
+        <f t="shared" si="5"/>
+        <v>571.19999999999993</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44055</v>
+      <c r="A8" s="16">
+        <v>44165</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>6463</v>
+        <v>6887</v>
       </c>
       <c r="D8" s="10">
-        <f t="shared" si="2"/>
-        <v>234</v>
+        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
+        <v>218</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="3"/>
-        <v>1102.1400000000001</v>
+        <f t="shared" ref="F8:F15" si="7">D8*E8</f>
+        <v>1026.78</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>1362.24</v>
+        <v>1419.48</v>
       </c>
       <c r="H8" s="8">
-        <v>1363</v>
+        <v>1419.48</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -679,49 +679,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="10">
-        <v>4424</v>
+        <v>4740</v>
       </c>
       <c r="D9" s="10">
-        <f t="shared" si="2"/>
-        <v>102</v>
+        <f t="shared" si="6"/>
+        <v>154</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="3"/>
-        <v>260.09999999999997</v>
+        <f t="shared" si="7"/>
+        <v>392.7</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43997</v>
+        <v>44117</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10">
-        <v>6229</v>
+        <v>6669</v>
       </c>
       <c r="D10" s="10">
-        <f t="shared" si="2"/>
-        <v>323</v>
+        <f>SUM(C10,-C12)</f>
+        <v>206</v>
       </c>
       <c r="E10" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="3"/>
-        <v>1450.27</v>
+        <f t="shared" si="7"/>
+        <v>970.26</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>2133.1</v>
+        <v>1383.36</v>
       </c>
       <c r="H10" s="8">
-        <v>2134</v>
+        <v>1386.36</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -730,37 +730,50 @@
         <v>9</v>
       </c>
       <c r="C11" s="10">
-        <v>4322</v>
+        <v>4586</v>
       </c>
       <c r="D11" s="10">
-        <f t="shared" si="2"/>
-        <v>281</v>
+        <f t="shared" si="6"/>
+        <v>162</v>
       </c>
       <c r="E11" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="3"/>
-        <v>682.83</v>
-      </c>
-      <c r="G11" s="3"/>
+        <f t="shared" si="7"/>
+        <v>413.09999999999997</v>
+      </c>
+      <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43958</v>
+        <v>44055</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="10">
-        <v>5906</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+        <v>6463</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="6"/>
+        <v>234</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="7"/>
+        <v>1102.1400000000001</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>1362.24</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1363</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -768,36 +781,152 @@
         <v>9</v>
       </c>
       <c r="C13" s="10">
-        <v>4041</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
+        <v>4424</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="7"/>
+        <v>260.09999999999997</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="A14" s="4">
+        <v>43997</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10">
+        <v>6229</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="6"/>
+        <v>323</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="7"/>
+        <v>1450.27</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(F14,F15)</f>
+        <v>2133.1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2134</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4322</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="6"/>
+        <v>281</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="7"/>
+        <v>682.83</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>43958</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10">
+        <v>5906</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4041</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="7"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/275ee.xlsx
+++ b/sputnik/personal/ee/275ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 01.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,28 +493,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44383</v>
+        <v>44417</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="10">
-        <v>7885</v>
+        <v>8074</v>
       </c>
       <c r="D2" s="10">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="E2" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>419.19</v>
+        <v>937.43999999999994</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>590.04</v>
+        <v>1216.1599999999999</v>
       </c>
       <c r="H2" s="8">
         <v>591</v>
@@ -526,49 +526,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>5160</v>
+        <v>5264</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>170.85</v>
+        <v>278.72000000000003</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <v>44375</v>
+        <v>44383</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>7796</v>
+        <v>7885</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>542</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>2552.8200000000002</v>
+        <v>419.19</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>2881.77</v>
+        <v>590.04</v>
       </c>
       <c r="H4" s="8">
-        <v>2881.82</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -577,49 +577,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>5093</v>
+        <v>5160</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>328.95</v>
+        <v>170.85</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
-        <v>44225</v>
+        <v>44375</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>7254</v>
+        <v>7796</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>367</v>
+        <v>542</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>1728.57</v>
+        <v>2552.8200000000002</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>2299.77</v>
+        <v>2881.77</v>
       </c>
       <c r="H6" s="8">
-        <v>2301</v>
+        <v>2881.82</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -628,49 +628,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>4964</v>
+        <v>5093</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="4"/>
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>571.19999999999993</v>
+        <v>328.95</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <v>44165</v>
+        <v>44225</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="10">
-        <v>6887</v>
+        <v>7254</v>
       </c>
       <c r="D8" s="10">
-        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
-        <v>218</v>
+        <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
+        <v>367</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F15" si="7">D8*E8</f>
-        <v>1026.78</v>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+        <v>1728.57</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>1419.48</v>
+        <v>2299.77</v>
       </c>
       <c r="H8" s="8">
-        <v>1419.48</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -679,49 +679,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="10">
-        <v>4740</v>
+        <v>4964</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="6"/>
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="7"/>
-        <v>392.7</v>
+        <v>571.19999999999993</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44117</v>
+      <c r="A10" s="16">
+        <v>44165</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10">
-        <v>6669</v>
+        <v>6887</v>
       </c>
       <c r="D10" s="10">
-        <f>SUM(C10,-C12)</f>
-        <v>206</v>
+        <f t="shared" ref="D10:D17" si="8">SUM(C10,-C12)</f>
+        <v>218</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="7"/>
-        <v>970.26</v>
+        <f t="shared" ref="F10:F17" si="9">D10*E10</f>
+        <v>1026.78</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>1383.36</v>
+        <v>1419.48</v>
       </c>
       <c r="H10" s="8">
-        <v>1386.36</v>
+        <v>1419.48</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -730,49 +730,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="10">
-        <v>4586</v>
+        <v>4740</v>
       </c>
       <c r="D11" s="10">
-        <f t="shared" si="6"/>
-        <v>162</v>
+        <f t="shared" si="8"/>
+        <v>154</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="7"/>
-        <v>413.09999999999997</v>
+        <f t="shared" si="9"/>
+        <v>392.7</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>44055</v>
+        <v>44117</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="10">
-        <v>6463</v>
+        <v>6669</v>
       </c>
       <c r="D12" s="10">
-        <f t="shared" si="6"/>
-        <v>234</v>
+        <f>SUM(C12,-C14)</f>
+        <v>206</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="7"/>
-        <v>1102.1400000000001</v>
+        <f t="shared" si="9"/>
+        <v>970.26</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>1362.24</v>
+        <v>1383.36</v>
       </c>
       <c r="H12" s="8">
-        <v>1363</v>
+        <v>1386.36</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -781,49 +781,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="10">
-        <v>4424</v>
+        <v>4586</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" si="6"/>
-        <v>102</v>
+        <f t="shared" si="8"/>
+        <v>162</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="7"/>
-        <v>260.09999999999997</v>
+        <f t="shared" si="9"/>
+        <v>413.09999999999997</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43997</v>
+        <v>44055</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="10">
-        <v>6229</v>
+        <v>6463</v>
       </c>
       <c r="D14" s="10">
-        <f t="shared" si="6"/>
-        <v>323</v>
+        <f t="shared" si="8"/>
+        <v>234</v>
       </c>
       <c r="E14" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="7"/>
-        <v>1450.27</v>
+        <f t="shared" si="9"/>
+        <v>1102.1400000000001</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>2133.1</v>
+        <v>1362.24</v>
       </c>
       <c r="H14" s="8">
-        <v>2134</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -832,37 +832,50 @@
         <v>9</v>
       </c>
       <c r="C15" s="10">
-        <v>4322</v>
+        <v>4424</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" si="6"/>
-        <v>281</v>
+        <f t="shared" si="8"/>
+        <v>102</v>
       </c>
       <c r="E15" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="7"/>
-        <v>682.83</v>
-      </c>
-      <c r="G15" s="3"/>
+        <f t="shared" si="9"/>
+        <v>260.09999999999997</v>
+      </c>
+      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43958</v>
+        <v>43997</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="10">
-        <v>5906</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+        <v>6229</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="8"/>
+        <v>323</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="9"/>
+        <v>1450.27</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(F16,F17)</f>
+        <v>2133.1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2134</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -870,48 +883,66 @@
         <v>9</v>
       </c>
       <c r="C17" s="10">
+        <v>4322</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="8"/>
+        <v>281</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="9"/>
+        <v>682.83</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43958</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5906</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="10">
         <v>4041</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -928,6 +959,26 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/sputnik/personal/ee/275ee.xlsx
+++ b/sputnik/personal/ee/275ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\30.11.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.11.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -92,18 +92,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -139,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -157,7 +151,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -168,7 +161,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -449,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,32 +485,32 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>44417</v>
+      <c r="A2" s="15">
+        <v>44536</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10">
-        <v>8074</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="C2" s="9">
+        <v>8174</v>
+      </c>
+      <c r="D2" s="9">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>937.43999999999994</v>
+        <v>496</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>1216.1599999999999</v>
+        <v>603.20000000000005</v>
       </c>
       <c r="H2" s="8">
-        <v>591</v>
+        <v>603.20000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -525,50 +518,50 @@
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10">
-        <v>5264</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9">
+        <v>5304</v>
+      </c>
+      <c r="D3" s="9">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>278.72000000000003</v>
+        <v>107.2</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>44383</v>
+      <c r="A4" s="15">
+        <v>44417</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
-        <v>7885</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4" s="9">
+        <v>8074</v>
+      </c>
+      <c r="D4" s="9">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>419.19</v>
+        <v>937.43999999999994</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>590.04</v>
+        <v>1216.1599999999999</v>
       </c>
       <c r="H4" s="8">
-        <v>591</v>
+        <v>1216.1600000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -576,50 +569,50 @@
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
-        <v>5160</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9">
+        <v>5264</v>
+      </c>
+      <c r="D5" s="9">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="E5" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>170.85</v>
+        <v>278.72000000000003</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>44375</v>
+      <c r="A6" s="15">
+        <v>44383</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10">
-        <v>7796</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="9">
+        <v>7885</v>
+      </c>
+      <c r="D6" s="9">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>542</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>2552.8200000000002</v>
+        <v>419.19</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>2881.77</v>
+        <v>590.04</v>
       </c>
       <c r="H6" s="8">
-        <v>2881.82</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -627,50 +620,50 @@
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10">
-        <v>5093</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="9">
+        <v>5160</v>
+      </c>
+      <c r="D7" s="9">
         <f t="shared" si="4"/>
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>328.95</v>
+        <v>170.85</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>44225</v>
+      <c r="A8" s="15">
+        <v>44375</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10">
-        <v>7254</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="9">
+        <v>7796</v>
+      </c>
+      <c r="D8" s="9">
         <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
-        <v>367</v>
+        <v>542</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>1728.57</v>
+        <v>2552.8200000000002</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>2299.77</v>
+        <v>2881.77</v>
       </c>
       <c r="H8" s="8">
-        <v>2301</v>
+        <v>2881.82</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -678,50 +671,50 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10">
-        <v>4964</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C9" s="9">
+        <v>5093</v>
+      </c>
+      <c r="D9" s="9">
         <f t="shared" si="6"/>
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="7"/>
-        <v>571.19999999999993</v>
+        <v>328.95</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>44165</v>
+      <c r="A10" s="15">
+        <v>44225</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10">
-        <v>6887</v>
-      </c>
-      <c r="D10" s="10">
-        <f t="shared" ref="D10:D17" si="8">SUM(C10,-C12)</f>
-        <v>218</v>
+      <c r="C10" s="9">
+        <v>7254</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" ref="D10:D11" si="8">SUM(C10,-C12)</f>
+        <v>367</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F17" si="9">D10*E10</f>
-        <v>1026.78</v>
+        <f t="shared" ref="F10:F11" si="9">D10*E10</f>
+        <v>1728.57</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>1419.48</v>
+        <v>2299.77</v>
       </c>
       <c r="H10" s="8">
-        <v>1419.48</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -729,50 +722,50 @@
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10">
-        <v>4740</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="C11" s="9">
+        <v>4964</v>
+      </c>
+      <c r="D11" s="9">
         <f t="shared" si="8"/>
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="9"/>
-        <v>392.7</v>
+        <v>571.19999999999993</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44117</v>
+      <c r="A12" s="15">
+        <v>44165</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10">
-        <v>6669</v>
-      </c>
-      <c r="D12" s="10">
-        <f>SUM(C12,-C14)</f>
-        <v>206</v>
+      <c r="C12" s="9">
+        <v>6887</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" ref="D12:D19" si="10">SUM(C12,-C14)</f>
+        <v>218</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="9"/>
-        <v>970.26</v>
+        <f t="shared" ref="F12:F19" si="11">D12*E12</f>
+        <v>1026.78</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>1383.36</v>
+        <v>1419.48</v>
       </c>
       <c r="H12" s="8">
-        <v>1386.36</v>
+        <v>1419.48</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -780,50 +773,50 @@
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10">
-        <v>4586</v>
-      </c>
-      <c r="D13" s="10">
-        <f t="shared" si="8"/>
-        <v>162</v>
+      <c r="C13" s="9">
+        <v>4740</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="10"/>
+        <v>154</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="9"/>
-        <v>413.09999999999997</v>
+        <f t="shared" si="11"/>
+        <v>392.7</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>44055</v>
+        <v>44117</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10">
-        <v>6463</v>
-      </c>
-      <c r="D14" s="10">
-        <f t="shared" si="8"/>
-        <v>234</v>
+      <c r="C14" s="9">
+        <v>6669</v>
+      </c>
+      <c r="D14" s="9">
+        <f>SUM(C14,-C16)</f>
+        <v>206</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="9"/>
-        <v>1102.1400000000001</v>
+        <f t="shared" si="11"/>
+        <v>970.26</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>1362.24</v>
+        <v>1383.36</v>
       </c>
       <c r="H14" s="8">
-        <v>1363</v>
+        <v>1386.36</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -831,50 +824,50 @@
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10">
-        <v>4424</v>
-      </c>
-      <c r="D15" s="10">
-        <f t="shared" si="8"/>
-        <v>102</v>
+      <c r="C15" s="9">
+        <v>4586</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="10"/>
+        <v>162</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="9"/>
-        <v>260.09999999999997</v>
+        <f t="shared" si="11"/>
+        <v>413.09999999999997</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43997</v>
+        <v>44055</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="10">
-        <v>6229</v>
-      </c>
-      <c r="D16" s="10">
-        <f t="shared" si="8"/>
-        <v>323</v>
+      <c r="C16" s="9">
+        <v>6463</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="10"/>
+        <v>234</v>
       </c>
       <c r="E16" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="9"/>
-        <v>1450.27</v>
+        <f t="shared" si="11"/>
+        <v>1102.1400000000001</v>
       </c>
       <c r="G16" s="8">
         <f>SUM(F16,F17)</f>
-        <v>2133.1</v>
+        <v>1362.24</v>
       </c>
       <c r="H16" s="8">
-        <v>2134</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -882,92 +875,132 @@
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="10">
-        <v>4322</v>
-      </c>
-      <c r="D17" s="10">
-        <f t="shared" si="8"/>
-        <v>281</v>
+      <c r="C17" s="9">
+        <v>4424</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="10"/>
+        <v>102</v>
       </c>
       <c r="E17" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="9"/>
-        <v>682.83</v>
-      </c>
-      <c r="G17" s="3"/>
+        <f t="shared" si="11"/>
+        <v>260.09999999999997</v>
+      </c>
+      <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43958</v>
+        <v>43997</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="10">
-        <v>5906</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="C18" s="9">
+        <v>6229</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="10"/>
+        <v>323</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="11"/>
+        <v>1450.27</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(F18,F19)</f>
+        <v>2133.1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>2134</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
+        <v>4322</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="10"/>
+        <v>281</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="11"/>
+        <v>682.83</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>43958</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="9">
+        <v>5906</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9">
         <v>4041</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="8">
+        <f>SUM(G4:G21)</f>
+        <v>13285.92</v>
+      </c>
+      <c r="H22" s="8">
+        <f>SUM(H4:H21)</f>
+        <v>13292.820000000002</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8">
+        <f>SUM(H22,-G22)</f>
+        <v>6.9000000000014552</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
@@ -979,6 +1012,26 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
